--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -100,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -135,8 +135,8 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -144,20 +144,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>

--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Produkt</t>
   </si>
@@ -93,18 +93,33 @@
   </si>
   <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Invoken</t>
+  </si>
+  <si>
+    <t>Instant Fusion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +145,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -148,16 +163,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -174,8 +192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Produkt"/>
     <tableColumn id="2" name="Datum" dataDxfId="1"/>
@@ -449,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,10 +498,10 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>43383</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>57.65</v>
       </c>
       <c r="D2" s="1">
@@ -501,10 +519,10 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>43393</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1">
@@ -524,10 +542,10 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>43396</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>43.89</v>
       </c>
       <c r="D4" s="1">
@@ -539,10 +557,10 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>43396</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>25.1</v>
       </c>
       <c r="D5" s="1">
@@ -554,10 +572,10 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>43396</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>37.99</v>
       </c>
       <c r="D6" s="1">
@@ -569,10 +587,10 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>43396</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>13.19</v>
       </c>
       <c r="D7" s="1">
@@ -584,26 +602,26 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>43396</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>4.99</v>
       </c>
       <c r="D8" s="1">
         <f>C8*H3</f>
         <v>5.5888000000000009</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>43405</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>14.85</v>
       </c>
       <c r="D9" s="1">
@@ -615,10 +633,10 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>43405</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>14.5</v>
       </c>
       <c r="D10" s="1">
@@ -630,10 +648,10 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>43421</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>7.65</v>
       </c>
       <c r="D11" s="1">
@@ -645,10 +663,10 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>43426</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1">
@@ -659,10 +677,10 @@
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>43439</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1">
@@ -673,10 +691,10 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>43459</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="8">
         <v>53.49</v>
       </c>
       <c r="D14" s="1">
@@ -688,10 +706,10 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>43474</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>33</v>
       </c>
       <c r="D15" s="1">
@@ -701,18 +719,61 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43475</v>
+      </c>
+      <c r="C16" s="7">
+        <v>90.46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>106.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43475</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B21" s="2">
         <f ca="1" xml:space="preserve"> TODAY()</f>
         <v>43475</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
-        <f>SUM(D2:D15)</f>
-        <v>437.35849999999999</v>
+      <c r="D21" s="1">
+        <f>SUM(D2:D20)</f>
+        <v>552.86849999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\Yugioh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\Yugioh\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA49B12F-AD26-40D9-BA8D-8FD98E851307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Produkt</t>
   </si>
@@ -99,18 +105,25 @@
   </si>
   <si>
     <t>Instant Fusion</t>
+  </si>
+  <si>
+    <t>Gravekeeper</t>
+  </si>
+  <si>
+    <t>Mekk-Knight Ersatz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,11 +160,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -159,12 +172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -172,10 +186,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -192,13 +206,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Produkt"/>
-    <tableColumn id="2" name="Datum" dataDxfId="1"/>
-    <tableColumn id="3" name="Divisen"/>
-    <tableColumn id="4" name="Kosten" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produkt"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datum" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Divisen"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kosten" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,13 +708,8 @@
       <c r="B14" s="3">
         <v>43459</v>
       </c>
-      <c r="C14" s="8">
-        <v>53.49</v>
-      </c>
-      <c r="D14" s="1">
-        <f>C14*H3</f>
-        <v>59.908800000000006</v>
-      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -746,14 +755,33 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43485</v>
+      </c>
+      <c r="C18" s="7">
+        <v>36.44</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18*H3</f>
+        <v>40.812800000000003</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43505</v>
+      </c>
+      <c r="C19" s="7">
+        <v>25.86</v>
+      </c>
+      <c r="D19" s="9">
+        <v>30.51</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -766,14 +794,14 @@
       </c>
       <c r="B21" s="2">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43475</v>
+        <v>43505</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(D2:D20)</f>
-        <v>552.86849999999993</v>
+        <v>564.28250000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\Yugioh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\Yugioh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA49B12F-AD26-40D9-BA8D-8FD98E851307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Produkt</t>
   </si>
@@ -111,28 +110,38 @@
   </si>
   <si>
     <t>Mekk-Knight Ersatz</t>
+  </si>
+  <si>
+    <t>Soul Bruner</t>
+  </si>
+  <si>
+    <t>Wog Gutschein</t>
+  </si>
+  <si>
+    <t>00-12-18</t>
+  </si>
+  <si>
+    <t>Mättpli etc</t>
+  </si>
+  <si>
+    <t>00-01-19</t>
+  </si>
+  <si>
+    <t>Erstattung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +167,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -172,21 +180,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -206,13 +220,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produkt"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datum" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Divisen"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kosten" dataDxfId="0"/>
+    <tableColumn id="1" name="Produkt"/>
+    <tableColumn id="2" name="Datum" dataDxfId="1"/>
+    <tableColumn id="3" name="Divisen"/>
+    <tableColumn id="4" name="Kosten" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -480,11 +494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,119 +703,185 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43439</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
-        <v>89.9</v>
+      <c r="D13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>43459</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="1"/>
+        <v>43439</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>89.9</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>43474</v>
-      </c>
-      <c r="C15" s="6">
-        <v>33</v>
+        <v>43459</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="1">
-        <f xml:space="preserve"> C15 *G3</f>
-        <v>32.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43475</v>
-      </c>
-      <c r="C16" s="7">
-        <v>90.46</v>
-      </c>
-      <c r="D16" s="1">
-        <v>106.34</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>43475</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7.8</v>
+        <v>43474</v>
+      </c>
+      <c r="C17" s="6">
+        <v>33</v>
       </c>
       <c r="D17" s="1">
-        <v>9.17</v>
+        <f xml:space="preserve"> C17 *G3</f>
+        <v>32.01</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
-        <v>43485</v>
+        <v>43475</v>
       </c>
       <c r="C18" s="7">
-        <v>36.44</v>
+        <v>90.46</v>
       </c>
       <c r="D18" s="1">
-        <f>C18*H3</f>
-        <v>40.812800000000003</v>
+        <v>106.34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
-        <v>43505</v>
+        <v>43475</v>
       </c>
       <c r="C19" s="7">
-        <v>25.86</v>
-      </c>
-      <c r="D19" s="9">
-        <v>30.51</v>
+        <v>7.8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43485</v>
+      </c>
+      <c r="C20" s="7">
+        <v>36.44</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20*H3</f>
+        <v>40.812800000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43505</v>
+      </c>
+      <c r="C21" s="7">
+        <v>25.86</v>
+      </c>
+      <c r="D21" s="1">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43516</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B28" s="2">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43505</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>43536</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1">
-        <f>SUM(D2:D20)</f>
-        <v>564.28250000000003</v>
+      <c r="D28" s="1">
+        <f>SUM(D2:D27)</f>
+        <v>629.28250000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\Yugioh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\Yugioh\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104902DA-8A07-4A9F-8DDD-A4EA94354B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Produkt</t>
   </si>
@@ -128,18 +129,24 @@
   </si>
   <si>
     <t>Erstattung</t>
+  </si>
+  <si>
+    <t>Inifinite &amp; Crusadia</t>
+  </si>
+  <si>
+    <t>Duel power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -185,7 +192,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -203,7 +210,7 @@
       <numFmt numFmtId="164" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -220,13 +227,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Produkt"/>
-    <tableColumn id="2" name="Datum" dataDxfId="1"/>
-    <tableColumn id="3" name="Divisen"/>
-    <tableColumn id="4" name="Kosten" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produkt"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datum" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Divisen"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kosten" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -494,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,14 +851,32 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43565</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39.9</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43576</v>
+      </c>
+      <c r="C24" s="7">
+        <v>124.44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>150</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -874,20 +899,21 @@
       </c>
       <c r="B28" s="2">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43536</v>
+        <v>43576</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1">
         <f>SUM(D2:D27)</f>
-        <v>629.28250000000003</v>
+        <v>819.1825</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\Yugioh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104902DA-8A07-4A9F-8DDD-A4EA94354B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655BE57C-5A80-4936-B6AC-CBC07F01611A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Produkt</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Duel power</t>
+  </si>
+  <si>
+    <t>Pendel 1</t>
+  </si>
+  <si>
+    <t>Pendel 2</t>
+  </si>
+  <si>
+    <t>Pendel 3</t>
+  </si>
+  <si>
+    <t>Pendel4</t>
   </si>
 </sst>
 </file>
@@ -227,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produkt"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datum" dataDxfId="1"/>
@@ -502,16 +514,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -879,34 +892,75 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43592</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>52.87</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43592</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>57.72</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="1"/>
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43592</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>54.81</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43608</v>
+      </c>
+      <c r="C28" s="7">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43576</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1">
-        <f>SUM(D2:D27)</f>
-        <v>819.1825</v>
+        <v>43608</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM(D2:D28)</f>
+        <v>1030.3025</v>
       </c>
     </row>
   </sheetData>
